--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -20,47 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="239">
-  <si>
-    <t>IIS installation</t>
-  </si>
-  <si>
-    <t>IIS configuration</t>
-  </si>
-  <si>
-    <t>Operation System</t>
-  </si>
-  <si>
-    <t>Oracle 10g</t>
-  </si>
-  <si>
-    <t>1. The lastest patch 10.2.0.4 is installed</t>
-  </si>
-  <si>
-    <t>3. Alzip</t>
-  </si>
-  <si>
-    <t>Utility on the server</t>
-  </si>
-  <si>
-    <t>4. Benthic Golden and PLEdit</t>
-  </si>
-  <si>
-    <t>5. UltraVNC</t>
-  </si>
-  <si>
-    <t>1. Logo title</t>
-  </si>
-  <si>
-    <t>2. Base URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="236">
   <si>
     <t>1. Basic Code</t>
   </si>
   <si>
-    <t>1-1 Create the Institution code</t>
-  </si>
-  <si>
     <t>Admin Web page</t>
   </si>
   <si>
@@ -70,81 +34,15 @@
     <t>2-1. Profile  - [Audit]</t>
   </si>
   <si>
-    <t>ENABLE_AUDIT_TRAIL : T</t>
-  </si>
-  <si>
     <t>2-2. Profile - [Compatible]</t>
   </si>
   <si>
-    <t>FULL_TEXT_SEARCH : F</t>
-  </si>
-  <si>
-    <t>USE_V4_SCHEMA : F</t>
-  </si>
-  <si>
     <t>2-3. Profile - [Netgate]</t>
   </si>
   <si>
-    <t>BACKUP_B1 : F</t>
-  </si>
-  <si>
-    <t>2-4. Profile - [Orthoview]</t>
-  </si>
-  <si>
-    <t>ENABLE : F</t>
-  </si>
-  <si>
-    <t>2-5. Profile - [Pantheon]</t>
-  </si>
-  <si>
-    <t>USE_REMOTE_READING : F</t>
-  </si>
-  <si>
-    <t>REMOTE_READING_CENTER : delete the default value</t>
-  </si>
-  <si>
-    <t>2-6. Profile - [Report]</t>
-  </si>
-  <si>
-    <t>1-2 Register all Netgates into Station</t>
-  </si>
-  <si>
-    <t>ORDERED_ONLY : F</t>
-  </si>
-  <si>
-    <t>2-7. Profile - [Ruleset]</t>
-  </si>
-  <si>
-    <t>USE_ROUTERULE : F</t>
-  </si>
-  <si>
-    <t>USE_VERIFYRULE : F</t>
-  </si>
-  <si>
-    <t>2-8. Profile - [Server]</t>
-  </si>
-  <si>
-    <t>INTERNAL_IP_FILTER : set the xml properly then reimport</t>
-  </si>
-  <si>
-    <t>2-9. Profile - [Storage]</t>
-  </si>
-  <si>
-    <t>USE_J2K_COMPRESSION : T</t>
-  </si>
-  <si>
     <t>2-10. Profile - [Validate]</t>
   </si>
   <si>
-    <t>ENABLE_STANDALONE_PACS : F</t>
-  </si>
-  <si>
-    <t>ENABLE_STANDALONE_RIS : F</t>
-  </si>
-  <si>
-    <t>USE_AUTOMATCH_RULE3 : F</t>
-  </si>
-  <si>
     <t>2-11. Profile - [Worklist]</t>
   </si>
   <si>
@@ -157,25 +55,6 @@
     <t>3. User</t>
   </si>
   <si>
-    <t>3-1. Make sure every user account has the institution code</t>
-  </si>
-  <si>
-    <t>3-2. Make sure all user levels are properly assigned into License manager</t>
-  </si>
-  <si>
-    <t>2-12. User Defined UI Defaults</t>
-  </si>
-  <si>
-    <t>Make sure the UI is opened without error. 
-If you get an error 'Server Error in '/' Application', please install iewebcontrol.msi</t>
-  </si>
-  <si>
-    <t>INFINITT Admin UI</t>
-  </si>
-  <si>
-    <t>1. Start Negate service</t>
-  </si>
-  <si>
     <t>2. Send bunch of studies to Netgate</t>
   </si>
   <si>
@@ -191,21 +70,6 @@
     <t>6. Install Viewer folder</t>
   </si>
   <si>
-    <t>7. Create one test account</t>
-  </si>
-  <si>
-    <t>8.  Login as you created on step 4</t>
-  </si>
-  <si>
-    <t>9. Open a study</t>
-  </si>
-  <si>
-    <t>10. Close a study</t>
-  </si>
-  <si>
-    <t>11. Test local burning</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -219,9 +83,6 @@
   </si>
   <si>
     <t>Final Testing</t>
-  </si>
-  <si>
-    <t>Initial tester</t>
   </si>
   <si>
     <t>Approver</t>
@@ -519,227 +380,1051 @@
     <t>Check List for the Upgarde</t>
   </si>
   <si>
-    <t>1. ESET NOD32 for trial (Anti-virus)</t>
-  </si>
-  <si>
-    <t>1. Application Development</t>
+    <t>1-3. ASP</t>
+  </si>
+  <si>
+    <t>1-4. CGI</t>
+  </si>
+  <si>
+    <t>2. Security</t>
+  </si>
+  <si>
+    <t>3. Management Tools</t>
+  </si>
+  <si>
+    <t>4-1. FTP Server</t>
+  </si>
+  <si>
+    <t>Internet Security</t>
+  </si>
+  <si>
+    <t>@Patch_3090-3091.sql</t>
+  </si>
+  <si>
+    <t>@Patch_3091-30101.sql</t>
+  </si>
+  <si>
+    <t>@Patch_30101-30102.sql</t>
+  </si>
+  <si>
+    <t>@Patch_30102-30110.sql</t>
+  </si>
+  <si>
+    <t>@Patch_30110-30111.sql</t>
+  </si>
+  <si>
+    <t>@Patch_30111-30112.sql</t>
+  </si>
+  <si>
+    <t>@Patch_30112-30113.sql</t>
+  </si>
+  <si>
+    <t>3. Install Netagte 30113 BN2</t>
+  </si>
+  <si>
+    <t>From 3090 to 30113</t>
+  </si>
+  <si>
+    <t>3. Install Archive manager 30113 BN1 and Backup manager 30113 BN1</t>
+  </si>
+  <si>
+    <t>3. Install Media server 30113 BN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Windows 激活</t>
+  </si>
+  <si>
+    <t>2. Windows 升级</t>
+  </si>
+  <si>
+    <t>3. Windows 防火墙关闭</t>
+  </si>
+  <si>
+    <t>4. 关闭EP. /noexecute=AlwaysOff in boot.ini</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性能选项改为最佳性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理器计划改为“后台服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟内存修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动管理所有驱动器的分页大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WINDOWS Error reporting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消系统失败后自动重启选项</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启写入转存文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11. spectra/spclient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户建立</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12. spetra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀毒软件已安装（医院如有和医院确认）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装常用输入法</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3. WINRAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩工具</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TEAMVIEWER/RADMIN/VNC/MSTSC</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> listener.ora </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监听文件</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tnsname.ora </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否有做定时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否设置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如是是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请确认打上最新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10.2.0.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补丁</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IIS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本用户验证</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-1. IIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理控制台</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-2. IIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理脚本及工具</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1-1. ASP.NET</t>
-  </si>
-  <si>
-    <t>1-2. .NET Extensibility</t>
-  </si>
-  <si>
-    <t>1-3. ASP</t>
-  </si>
-  <si>
-    <t>1-4. CGI</t>
-  </si>
-  <si>
-    <t>1-5. ISAPI Extensions</t>
-  </si>
-  <si>
-    <t>1-6. ISAPI Filters</t>
-  </si>
-  <si>
-    <t>1-7. Server Side Includes</t>
-  </si>
-  <si>
-    <t>2. Security</t>
-  </si>
-  <si>
-    <t>2-1. Basic Authentication</t>
-  </si>
-  <si>
-    <t>2-2. Windows Authentication</t>
-  </si>
-  <si>
-    <t>3. Management Tools</t>
-  </si>
-  <si>
-    <t>3-1. IIS Management Console</t>
-  </si>
-  <si>
-    <t>3-2. IIS Management Scripts and Tools</t>
-  </si>
-  <si>
-    <t>3-3. Management Service</t>
-  </si>
-  <si>
-    <t>3-4. IIS 6 Management Compatibility</t>
-  </si>
-  <si>
-    <t>3-4-1. IIS 6 Metabase Compatibility</t>
-  </si>
-  <si>
-    <t>3-4-2. IIS 6 WMI Compatibility</t>
-  </si>
-  <si>
-    <t>3-4-3. IIS 6 Scripting Tools</t>
-  </si>
-  <si>
-    <t>3-4-4. IIS 6 Management Console</t>
-  </si>
-  <si>
-    <t>5. iewebcontrol.msi</t>
-  </si>
-  <si>
-    <t>4-1. FTP Server</t>
-  </si>
-  <si>
-    <t>4. FTP Publishing Service</t>
-  </si>
-  <si>
-    <t>4-2. FTP Management Console</t>
-  </si>
-  <si>
-    <t>2. Notepad</t>
-  </si>
-  <si>
-    <t>2. Create the MIME types ARC, DCM, DIC, MP3</t>
-  </si>
-  <si>
-    <t>5. .NET Framework Version 1.1</t>
-  </si>
-  <si>
-    <t>5-1. .NET Framework 1.1 Service Pack 1</t>
-  </si>
-  <si>
-    <t>5-2. .NET Framework 1.1 Service Pack 1 ASP.NET Security Update</t>
-  </si>
-  <si>
-    <t>1. Allow ASP.NET v1.1.4332 in ISAPI and CGI Restrictions</t>
-  </si>
-  <si>
-    <t>3. Enable 32-bit Applications value is True in [Application Pools]-[Advanced Settings] (For 64bit)</t>
-  </si>
-  <si>
-    <t>4. Set Application Pool is ASP.NET 1.1 in [Default Web Site]-[Advanced Settings]</t>
-  </si>
-  <si>
-    <t>5. Add Virtual Directory of Volume in Default Web Site</t>
-  </si>
-  <si>
-    <t>3. License Type</t>
-  </si>
-  <si>
-    <t>4. Installation folder for WebView</t>
-  </si>
-  <si>
-    <t>Internet Security</t>
-  </si>
-  <si>
-    <t>1. Turn off Configure IE ESC</t>
-  </si>
-  <si>
-    <t>2. Internet Options</t>
-  </si>
-  <si>
-    <t>2-1. Changed security levels</t>
-  </si>
-  <si>
-    <t>2-2. Add IP Address in Trusted Sites</t>
-  </si>
-  <si>
-    <t>@Patch_3090-3091.sql</t>
-  </si>
-  <si>
-    <t>@Patch_3091-30101.sql</t>
-  </si>
-  <si>
-    <t>@Patch_30101-30102.sql</t>
-  </si>
-  <si>
-    <t>@Patch_30102-30110.sql</t>
-  </si>
-  <si>
-    <t>@Patch_30110-30111.sql</t>
-  </si>
-  <si>
-    <t>@Patch_30111-30112.sql</t>
-  </si>
-  <si>
-    <t>@Patch_30112-30113.sql</t>
-  </si>
-  <si>
-    <t>3. Install Netagte 30113 BN2</t>
-  </si>
-  <si>
-    <t>From 3090 to 30113</t>
-  </si>
-  <si>
-    <t>3. Install Archive manager 30113 BN1 and Backup manager 30113 BN1</t>
-  </si>
-  <si>
-    <t>3. Install Media server 30113 BN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Name  </t>
-  </si>
-  <si>
-    <t>Hospital Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>4. Schedule for Hot Backup at every night (Use Backup AZMA)</t>
-  </si>
-  <si>
-    <t>5. Schedule for Full Export once a week (Use Backup AZMA)</t>
-  </si>
-  <si>
-    <t>Oracle 11g</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Check listener.ora file</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Check tnsname.ora file</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Check size of listener.log file in \\app\Administrator\diag\tnslsnr\&lt;hostname&gt;\listener\trace</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. Processor scheduling is set to 'Background services'</t>
-  </si>
-  <si>
-    <t>7. Memory usage is set to 'System cache'</t>
-  </si>
-  <si>
-    <t>8. Error reporting is disabled but notify</t>
-  </si>
-  <si>
-    <t>9. Uncheck 'Automatically restart' in system failure</t>
-  </si>
-  <si>
-    <t>10. Write debugging information is set to Kernal memory dump</t>
-  </si>
-  <si>
-    <t>11. spectra/spclient user accounts are created</t>
-  </si>
-  <si>
-    <t>12. Set spectra as a member of Administrators</t>
-  </si>
-  <si>
-    <t>PACS服务器安装路径</t>
-  </si>
-  <si>
-    <t>1. Windows 激活</t>
-  </si>
-  <si>
-    <t>2. Windows 升级</t>
-  </si>
-  <si>
-    <t>3. Windows 防火墙关闭</t>
-  </si>
-  <si>
-    <t>4. 关闭EP. /noexecute=AlwaysOff in boot.ini</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用程序开发</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-2. .NET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展性</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-5. ISAPI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-6. ISAPI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>筛选器</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在服务器端的包含文件</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-2. Windows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份用户验证</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理服务</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-4. IIS 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理兼容性</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-4-1. IIS 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元数据库兼容性</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-4-2. IIS 6 WMI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兼容性</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-4-3. IIS 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本工具</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-4-4. IIS 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理控制台</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4. FTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4-2. FTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. iewebcontrol.msi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ASP.NET v1.1.4332  ISAPI and CGI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行扩展路径</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ARC, DCM, DIC, MP3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用程序池允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位模式</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5. .NET Framework Version 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-1. .NET Framework 1.1 Service Pack 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5-2. .NET Framework 1.1 Service Pack 1 ASP.NET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置默认应用程序池为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ASP.NET 1.1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -753,18 +1438,1144 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>性能选项改为最佳性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能</t>
-    </r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VOLUME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加至虚拟目录</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOGO</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2. G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器地址</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INFINITT Admin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>License</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> WebView</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IE ESC</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Internet Options</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入至信任站点</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改安全级别，添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ActiviX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控件许可</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-2  Station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NETGATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等站点（注意备注连接的设备）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. Profile  - [Audit]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FULL_TEXT_SEARCH : F  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭全文件搜索</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ENABLE_AUDIT_TRAIL : T  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据医院需求是否开启审计</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> USE_V4_SCHEMA : F  </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BACKUP_B1 : F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4. Profile - [Storage]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE_J2K_COMPRESSION : T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JPEG2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-5. User Defined UI Defaults </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置用户挂片协议及权限</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增用户</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置用户在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>License Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的权限</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Negate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务能起来</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以往</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Netgate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送图像</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Netgate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Log,Error,Spool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径下的磁盘容量最好够</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PACS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> WebView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIEWER</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新建测试账号</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打开病人图像</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.PACSPush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已安装并修改配置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已安装可以登记至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PACS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并修改病人状态</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.WORKGATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以正常让设备获取工作列表</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务自动重启服务是否已安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.Archive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像压缩是否已设置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WORKLIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取是否正常，是否已设置独立视图</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已做数据库定时备份</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧急预案是否已做并交给信息科</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IIS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户基本挂片协议是否已设置，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PACS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示时间应为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acqision Time</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像匹配工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AcqManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已培训</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像备份模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Backup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已安装并配置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Institution code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注意和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Institution Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录所有服务器信息</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施人员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PACS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器安装实施路径</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核确认</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +2583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +2642,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -870,7 +2697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -945,22 +2772,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1055,25 +2871,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,6 +2891,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,1105 +3202,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="81.625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="15.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="1"/>
+    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
+        <v>224</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>223</v>
+    </row>
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>224</v>
+    </row>
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>220</v>
+    </row>
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
-        <v>221</v>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>166</v>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>167</v>
+    </row>
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
-        <v>170</v>
+    </row>
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>174</v>
+    </row>
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>175</v>
+    </row>
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>176</v>
+    </row>
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
-        <v>177</v>
+    </row>
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
-        <v>178</v>
+    </row>
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
-        <v>179</v>
+    </row>
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>182</v>
+    </row>
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>183</v>
+    </row>
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>184</v>
+    </row>
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>185</v>
+    </row>
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
-        <v>189</v>
+    </row>
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>193</v>
+    </row>
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
-        <v>194</v>
+    </row>
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="34"/>
+    </row>
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+    </row>
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+    </row>
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+    </row>
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+    </row>
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="28"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-    </row>
-    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-    </row>
-    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="39"/>
-    </row>
-    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="27"/>
-    </row>
-    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="39"/>
-    </row>
-    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
-        <v>202</v>
+      <c r="B82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
-        <v>203</v>
+    </row>
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="9" t="s">
-        <v>204</v>
+    </row>
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
-        <v>11</v>
+    </row>
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
-        <v>12</v>
+    </row>
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
-        <v>14</v>
+    </row>
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="10" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A97" s="11"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
-        <v>19</v>
+    </row>
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
-        <v>21</v>
+    </row>
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="9" t="s">
-        <v>24</v>
+    </row>
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
-        <v>26</v>
+    </row>
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="10" t="s">
-        <v>25</v>
+    </row>
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="9" t="s">
-        <v>27</v>
+    </row>
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
-        <v>29</v>
+    </row>
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="9" t="s">
-        <v>30</v>
+    </row>
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="10" t="s">
-        <v>31</v>
+    </row>
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="10" t="s">
-        <v>32</v>
+    </row>
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="9" t="s">
-        <v>33</v>
+    </row>
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="10" t="s">
-        <v>34</v>
+    </row>
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="9" t="s">
-        <v>35</v>
+    </row>
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="10" t="s">
-        <v>36</v>
+    </row>
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="9" t="s">
-        <v>37</v>
+    </row>
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
-        <v>38</v>
+    </row>
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="10" t="s">
-        <v>39</v>
+    </row>
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="10" t="s">
-        <v>40</v>
+    </row>
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="9" t="s">
-        <v>41</v>
+    </row>
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="10" t="s">
-        <v>42</v>
+    </row>
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="10" t="s">
-        <v>43</v>
+    </row>
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="9" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="11" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2511,21 +4077,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2535,894 +4101,894 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="36"/>
+      <c r="A45" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="34"/>
     </row>
     <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="21" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="20" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="20" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="20" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="20" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="20" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="20" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="20" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="23" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="23" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="23" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="23" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="23" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="20" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="20" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="20" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="20" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="20" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="20" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="20" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="20" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="18" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="20" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="18" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="20" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="20" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="20" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="20" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="20" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="20" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="20" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="20" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="20" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="20" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="20" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="20" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="20" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="20" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="18" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="18" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="20" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="20" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="20" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="20" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="20" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="20" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="20" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="20" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="15" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="15" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="15" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="15" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="15" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="15" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="15" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="15" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="15" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="15" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="15" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>

--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -446,9 +446,6 @@
     <t>3. Windows 防火墙关闭</t>
   </si>
   <si>
-    <t>4. 关闭EP. /noexecute=AlwaysOff in boot.ini</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">5. </t>
     </r>
@@ -2576,6 +2573,31 @@
   </si>
   <si>
     <t>审核确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EP. /noexecute=AlwaysOff</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3205,7 +3227,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3217,20 +3239,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>233</v>
-      </c>
       <c r="C3" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3240,7 +3262,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -3275,70 +3297,70 @@
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>22</v>
@@ -3349,28 +3371,28 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3382,7 +3404,7 @@
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>17</v>
@@ -3393,35 +3415,35 @@
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3433,7 +3455,7 @@
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
@@ -3444,21 +3466,21 @@
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3479,21 +3501,21 @@
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3507,14 +3529,14 @@
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3528,63 +3550,63 @@
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3598,42 +3620,42 @@
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>18</v>
@@ -3644,42 +3666,42 @@
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>19</v>
@@ -3688,28 +3710,28 @@
     </row>
     <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B71" s="35"/>
       <c r="C71" s="36"/>
     </row>
     <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="36"/>
     </row>
     <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
     </row>
     <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B74" s="35"/>
       <c r="C74" s="36"/>
@@ -3732,28 +3754,28 @@
     </row>
     <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3778,14 +3800,14 @@
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3799,14 +3821,14 @@
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3820,14 +3842,14 @@
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3841,28 +3863,28 @@
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3881,21 +3903,21 @@
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>17</v>
@@ -3906,133 +3928,133 @@
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>

--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="New Installation" sheetId="1" r:id="rId1"/>
@@ -1460,17 +1460,50 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医院</t>
+      <t>2. G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器地址</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INFINITT Admin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
     </r>
     <r>
       <rPr>
@@ -1479,56 +1512,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>LOGO</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2. G3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器地址</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INFINITT Admin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
+      <t>License</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安装</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置</t>
     </r>
     <r>
       <rPr>
@@ -1537,23 +1537,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>License</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装</t>
+      <t xml:space="preserve"> WebView</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
     </r>
     <r>
       <rPr>
@@ -1562,23 +1562,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> WebView</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
+      <t xml:space="preserve"> IE ESC</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
     </r>
     <r>
       <rPr>
@@ -1587,23 +1587,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> IE ESC</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置</t>
+      <t>IE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -1612,17 +1606,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>IE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>Internet Options</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
     </r>
     <r>
       <rPr>
@@ -1631,23 +1631,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Internet Options</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将</t>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入至信任站点</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改安全级别，添加</t>
     </r>
     <r>
       <rPr>
@@ -1656,33 +1666,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加入至信任站点</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修改安全级别，添加</t>
+      <t>ActiviX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控件许可</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-2  Station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里注册</t>
     </r>
     <r>
       <rPr>
@@ -1691,33 +1701,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ActiviX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>控件许可</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-2  Station</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里注册</t>
+      <t>NETGATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等站点（注意备注连接的设备）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. Profile  - [Audit]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FULL_TEXT_SEARCH : F  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭全文件搜索</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ENABLE_AUDIT_TRAIL : T  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据医院需求是否开启审计</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
     </r>
     <r>
       <rPr>
@@ -1726,57 +1769,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NETGATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等站点（注意备注连接的设备）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1. Profile  - [Audit]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FULL_TEXT_SEARCH : F  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭全文件搜索</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ENABLE_AUDIT_TRAIL : T  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据医院需求是否开启审计</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> USE_V4_SCHEMA : F  </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BACKUP_B1 : F </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1794,23 +1794,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> USE_V4_SCHEMA : F  </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BACKUP_B1 : F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
+      <t>B1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4. Profile - [Storage]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE_J2K_COMPRESSION : T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启</t>
     </r>
     <r>
       <rPr>
@@ -1819,27 +1823,65 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>B1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-4. Profile - [Storage]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE_J2K_COMPRESSION : T </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启</t>
+      <t>JPEG2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-5. User Defined UI Defaults </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置用户挂片协议及权限</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增用户</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置用户在</t>
     </r>
     <r>
       <rPr>
@@ -1848,65 +1890,53 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>JPEG2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2-5. User Defined UI Defaults </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置用户挂片协议及权限</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新增用户</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置用户在</t>
+      <t>License Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的权限</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Negate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务能起来</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以往</t>
     </r>
     <r>
       <rPr>
@@ -1915,53 +1945,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>License Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的权限</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Negate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务能起来</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以往</t>
+      <t xml:space="preserve"> Netgate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送图像</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意</t>
     </r>
     <r>
       <rPr>
@@ -1970,33 +1980,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Netgate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发送图像</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意</t>
+      <t>Netgate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -2005,17 +1999,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Netgate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>Log,Error,Spool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径下的磁盘容量最好够</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以</t>
     </r>
     <r>
       <rPr>
@@ -2024,33 +2034,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Log,Error,Spool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路径下的磁盘容量最好够</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以</t>
+      <t>admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆</t>
     </r>
     <r>
       <rPr>
@@ -2059,17 +2053,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登陆</t>
+      <t>PACS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
     </r>
     <r>
       <rPr>
@@ -2078,23 +2078,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>PACS</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装</t>
+      <t xml:space="preserve"> WebView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -2103,17 +2097,71 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> WebView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
+      <t>VIEWER</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新建测试账号</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打开病人图像</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.PACSPush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已安装并修改配置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已安装可以登记至</t>
     </r>
     <r>
       <rPr>
@@ -2122,71 +2170,81 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>VIEWER</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新建测试账号</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开病人图像</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8.PACSPush</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否已安装并修改配置</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.Broker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否已安装可以登记至</t>
+      <t>PACS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并修改病人状态</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.WORKGATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以正常让设备获取工作列表</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务自动重启服务是否已安装</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.Archive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像压缩是否已设置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备</t>
     </r>
     <r>
       <rPr>
@@ -2195,81 +2253,103 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>PACS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并修改病人状态</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.WORKGATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以正常让设备获取工作列表</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务自动重启服务是否已安装</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12.Archive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像压缩是否已设置</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设备</t>
+      <t>WORKLIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取是否正常，是否已设置独立视图</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已做数据库定时备份</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧急预案是否已做并交给信息科</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IIS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户基本挂片协议是否已设置，</t>
     </r>
     <r>
       <rPr>
@@ -2278,103 +2358,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>WORKLIST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取是否正常，是否已设置独立视图</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否已做数据库定时备份</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>紧急预案是否已做并交给信息科</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作系统设置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IIS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>16.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户基本挂片协议是否已设置，</t>
+      <t>PACS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示时间应为</t>
     </r>
     <r>
       <rPr>
@@ -2383,17 +2377,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>PACS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>显示时间应为</t>
+      <t>Acqision Time</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像匹配工具</t>
     </r>
     <r>
       <rPr>
@@ -2402,23 +2402,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Acqision Time</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像匹配工具</t>
+      <t>AcqManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已培训</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像备份模块</t>
     </r>
     <r>
       <rPr>
@@ -2427,33 +2437,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>AcqManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否已培训</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像备份模块</t>
+      <t>Backup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否已安装并配置</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
     </r>
     <r>
       <rPr>
@@ -2462,33 +2472,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Backup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否已安装并配置</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1-1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建</t>
+      <t xml:space="preserve"> Institution code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注意和</t>
     </r>
     <r>
       <rPr>
@@ -2497,17 +2491,78 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Institution code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（注意和</t>
+      <t>Institution Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录所有服务器信息</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施人员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PACS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器安装实施路径</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
     </r>
     <r>
       <rPr>
@@ -2516,78 +2571,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Institution Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一致）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>记录所有服务器信息</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施人员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PACS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器安装实施路径</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
+      <t>EP. /noexecute=AlwaysOff</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医院</t>
     </r>
     <r>
       <rPr>
@@ -2596,7 +2596,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>EP. /noexecute=AlwaysOff</t>
+      <t>Title</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2893,6 +2893,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2914,15 +2920,9 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3226,43 +3226,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="81.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
-        <v>223</v>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>222</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -3271,7 +3271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>138</v>
       </c>
@@ -3281,85 +3281,85 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="18" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:3" ht="18" customHeight="1">
+      <c r="A20" s="32" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -3369,42 +3369,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="18" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="18" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="18" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="18" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="18" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="18" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>17</v>
@@ -3413,47 +3413,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="18" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="18" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="18" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="18" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="18" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="18" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="18" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>159</v>
       </c>
@@ -3464,198 +3464,198 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="18" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="18" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="18" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="18" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="18" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="18" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="18" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="18" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="18" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="18" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="18" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="18" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="18" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="18" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="18" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="18" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="18" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="18" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="18" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="18" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="18" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="18" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="18" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="18" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>18</v>
@@ -3664,84 +3664,84 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="18" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="18" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="18" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="18" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="18" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="18" customHeight="1">
       <c r="A70" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="36"/>
+    </row>
+    <row r="71" spans="1:3" ht="18" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+    </row>
+    <row r="72" spans="1:3" ht="18" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+    </row>
+    <row r="73" spans="1:3" ht="18" customHeight="1">
+      <c r="A73" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="34"/>
-    </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-    </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-    </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="18" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
-    </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+    </row>
+    <row r="75" spans="1:3" ht="18" customHeight="1">
       <c r="A75" s="28"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="18" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>124</v>
       </c>
@@ -3752,35 +3752,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="18" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="18" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="18" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="18" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="18" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
@@ -3791,133 +3791,133 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="18" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="18" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="18" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="18" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="18" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="18" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="18" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="18" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="18" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="18" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="18" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="18" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="18" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="18" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="12">
       <c r="A97" s="11"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="18" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="18" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="18" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="39" t="s">
-        <v>207</v>
+    <row r="102" spans="1:3" ht="18" customHeight="1">
+      <c r="A102" s="32" t="s">
+        <v>206</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>17</v>
@@ -3926,145 +3926,145 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="18" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="18" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="18" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="18" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="18" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="18" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="18" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="18" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="18" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="18" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="18" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="18" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="18" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="18" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="18" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="18" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="18" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="18" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="18" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" ht="18" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="18" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4079,7 +4079,12 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4091,21 +4096,21 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="85.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="85.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>136</v>
       </c>
@@ -4116,35 +4121,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>133</v>
       </c>
@@ -4155,112 +4160,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="18" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="18" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="18" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="18" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="18" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="18" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="18" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="18" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="18" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="18" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="18" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="18" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="24">
       <c r="A24" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -4271,42 +4276,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="18" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="18" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="18" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="18" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="18" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
@@ -4317,35 +4322,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="18" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="18" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="18" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4356,45 +4361,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="18" customHeight="1">
       <c r="A41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="18" customHeight="1">
       <c r="A42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="18" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:3" ht="18" customHeight="1">
+      <c r="A45" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="34"/>
-    </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="38"/>
+      <c r="C45" s="36"/>
+    </row>
+    <row r="46" spans="1:3" ht="18" customHeight="1">
+      <c r="A46" s="40"/>
       <c r="B46" s="21" t="s">
         <v>46</v>
       </c>
@@ -4402,532 +4407,532 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="18" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="18" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="18" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="18" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="18" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="18" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="18" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="18" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="18" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="18" customHeight="1">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="18" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="18" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="18" customHeight="1">
       <c r="A59" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="18" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="18" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="18" customHeight="1">
       <c r="A62" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="18" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="18" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="18" customHeight="1">
       <c r="A65" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="18" customHeight="1">
       <c r="A66" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="18" customHeight="1">
       <c r="A67" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="18" customHeight="1">
       <c r="A68" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="18" customHeight="1">
       <c r="A69" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="18" customHeight="1">
       <c r="A70" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="18" customHeight="1">
       <c r="A71" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="18" customHeight="1">
       <c r="A72" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="18" customHeight="1">
       <c r="A73" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="18" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="18" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="18" customHeight="1">
       <c r="A76" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="18" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="18" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="18" customHeight="1">
       <c r="A79" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="18" customHeight="1">
       <c r="A80" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="18" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="18" customHeight="1">
       <c r="A82" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="18" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="18" customHeight="1">
       <c r="A84" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="18" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="18" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="18" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="18" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="18" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="18" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="18" customHeight="1">
       <c r="A91" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="18" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="18" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="18" customHeight="1">
       <c r="A94" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="18" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="18" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="18" customHeight="1">
       <c r="A97" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="18" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="18" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="18" customHeight="1">
       <c r="A100" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="18" customHeight="1">
       <c r="A101" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="18" customHeight="1">
       <c r="A102" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="18" customHeight="1">
       <c r="A103" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="18" customHeight="1">
       <c r="A104" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="18" customHeight="1">
       <c r="A105" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="18" customHeight="1">
       <c r="A106" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="18" customHeight="1">
       <c r="A107" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="18" customHeight="1">
       <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="18" customHeight="1">
       <c r="A109" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="18" customHeight="1">
       <c r="A110" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="18" customHeight="1">
       <c r="A111" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="18" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="18" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="18" customHeight="1">
       <c r="A114" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="18" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="18" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="18" customHeight="1">
       <c r="A117" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="18" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="18" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="18" customHeight="1">
       <c r="A120" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="18" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="18" customHeight="1">
       <c r="A123" s="14" t="s">
         <v>20</v>
       </c>
@@ -4938,77 +4943,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" ht="18" customHeight="1">
       <c r="A124" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" ht="18" customHeight="1">
       <c r="A125" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" ht="18" customHeight="1">
       <c r="A126" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" ht="18" customHeight="1">
       <c r="A127" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" ht="18" customHeight="1">
       <c r="A128" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" ht="18" customHeight="1">
       <c r="A129" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" ht="18" customHeight="1">
       <c r="A130" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" ht="18" customHeight="1">
       <c r="A131" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" ht="18" customHeight="1">
       <c r="A132" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" ht="18" customHeight="1">
       <c r="A133" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" ht="18" customHeight="1">
       <c r="A134" s="15" t="s">
         <v>117</v>
       </c>
@@ -5026,6 +5031,11 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KayiSoft/Implement-path/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
   </bookViews>
@@ -2530,6 +2535,60 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>审核确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EP. /noexecute=AlwaysOff</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Title</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>PACS</t>
     </r>
@@ -2542,63 +2601,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>服务器安装实施路径</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EP. /noexecute=AlwaysOff</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Title</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>服务器安装实施路径222</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2609,7 +2613,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2645,14 +2649,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2922,7 +2926,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3227,24 +3231,24 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="81.6640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>230</v>
       </c>
@@ -3252,15 +3256,15 @@
         <v>231</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>222</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>138</v>
       </c>
@@ -3281,84 +3285,84 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1">
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>152</v>
       </c>
@@ -3369,40 +3373,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1">
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1">
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1">
+    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1">
+    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>223</v>
       </c>
@@ -3413,47 +3417,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1">
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1">
+    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>159</v>
       </c>
@@ -3464,196 +3468,196 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1">
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1">
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>224</v>
       </c>
@@ -3664,42 +3668,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>188</v>
       </c>
@@ -3708,40 +3712,40 @@
       </c>
       <c r="C70" s="36"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="38"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>124</v>
       </c>
@@ -3752,35 +3756,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
@@ -3791,131 +3795,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>198</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="12">
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1">
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1">
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1">
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1">
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="32" t="s">
         <v>206</v>
       </c>
@@ -3926,145 +3930,145 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1">
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1">
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1">
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1">
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1">
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1">
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1">
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1">
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1">
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1">
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1">
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1">
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1">
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1">
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1">
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1">
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" ht="18" customHeight="1">
+    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1">
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4080,11 +4084,6 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4096,21 +4095,21 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="85.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>136</v>
       </c>
@@ -4121,12 +4120,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -4135,21 +4134,21 @@
       </c>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>133</v>
       </c>
@@ -4160,112 +4159,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1">
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1">
+    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1">
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1">
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1">
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="24">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1">
+    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -4276,42 +4275,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1">
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
@@ -4322,35 +4321,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4361,35 +4360,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>1</v>
       </c>
@@ -4398,7 +4397,7 @@
       </c>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="21" t="s">
         <v>46</v>
@@ -4407,532 +4406,532 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1">
+    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1">
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1">
+    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1">
+    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1">
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1">
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1">
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1">
+    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1">
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1">
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1">
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1">
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1">
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1">
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1">
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1">
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1">
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1">
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1">
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1">
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1">
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1">
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1">
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1">
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1">
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1">
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>20</v>
       </c>
@@ -4943,77 +4942,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" customHeight="1">
+    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" ht="18" customHeight="1">
+    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" ht="18" customHeight="1">
+    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1">
+    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" ht="18" customHeight="1">
+    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1">
+    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1">
+    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1">
+    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1">
+    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1">
+    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1">
+    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>117</v>
       </c>
@@ -5032,10 +5031,5 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KayiSoft/Implement-path/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="New Installation" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="237">
   <si>
     <t>1. Basic Code</t>
   </si>
@@ -2603,6 +2598,22 @@
       </rPr>
       <t>服务器安装实施路径222</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医院</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2613,7 +2624,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2649,14 +2660,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2926,7 +2937,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3231,24 +3242,24 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="81.625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
         <v>230</v>
       </c>
@@ -3259,12 +3270,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>222</v>
       </c>
@@ -3275,7 +3288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>138</v>
       </c>
@@ -3285,84 +3298,84 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
         <v>152</v>
       </c>
@@ -3373,40 +3386,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>223</v>
       </c>
@@ -3417,47 +3430,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>159</v>
       </c>
@@ -3468,196 +3481,196 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>224</v>
       </c>
@@ -3668,42 +3681,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
         <v>188</v>
       </c>
@@ -3712,40 +3725,40 @@
       </c>
       <c r="C70" s="36"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="38"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="28"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
         <v>124</v>
       </c>
@@ -3756,35 +3769,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
@@ -3795,131 +3808,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>198</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="32" t="s">
         <v>206</v>
       </c>
@@ -3930,145 +3943,145 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4083,7 +4096,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4095,21 +4108,21 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="85.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="85.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>136</v>
       </c>
@@ -4120,12 +4133,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -4134,21 +4147,21 @@
       </c>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>133</v>
       </c>
@@ -4159,112 +4172,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -4275,42 +4288,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
@@ -4321,35 +4334,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4360,35 +4373,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
         <v>1</v>
       </c>
@@ -4397,7 +4410,7 @@
       </c>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="40"/>
       <c r="B46" s="21" t="s">
         <v>46</v>
@@ -4406,532 +4419,532 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14" t="s">
         <v>20</v>
       </c>
@@ -4942,77 +4955,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="15" t="s">
         <v>117</v>
       </c>

--- a/PACS标准路径.xlsx
+++ b/PACS标准路径.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KayiSoft/Implement-path/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="New Installation" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="236">
   <si>
     <t>1. Basic Code</t>
   </si>
@@ -2582,22 +2587,6 @@
       <t>Title</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PACS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器安装实施路径222</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2620,11 +2609,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2660,14 +2649,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2683,14 +2672,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2937,7 +2918,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3242,24 +3223,22 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="81.625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="81.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>235</v>
-      </c>
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>230</v>
       </c>
@@ -3270,14 +3249,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>222</v>
       </c>
@@ -3288,7 +3267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>138</v>
       </c>
@@ -3298,84 +3277,84 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>152</v>
       </c>
@@ -3386,40 +3365,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>223</v>
       </c>
@@ -3430,47 +3409,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>159</v>
       </c>
@@ -3481,196 +3460,196 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>224</v>
       </c>
@@ -3681,42 +3660,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>188</v>
       </c>
@@ -3725,40 +3704,40 @@
       </c>
       <c r="C70" s="36"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="38"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>124</v>
       </c>
@@ -3769,35 +3748,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
@@ -3808,131 +3787,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>198</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="32" t="s">
         <v>206</v>
       </c>
@@ -3943,145 +3922,145 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4108,21 +4087,21 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="85.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>136</v>
       </c>
@@ -4133,12 +4112,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -4147,21 +4126,21 @@
       </c>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>133</v>
       </c>
@@ -4172,112 +4151,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -4288,42 +4267,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
@@ -4334,35 +4313,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4373,35 +4352,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>1</v>
       </c>
@@ -4410,7 +4389,7 @@
       </c>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="21" t="s">
         <v>46</v>
@@ -4419,532 +4398,532 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>20</v>
       </c>
@@ -4955,77 +4934,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>117</v>
       </c>
